--- a/股票池.xlsx
+++ b/股票池.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20417"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\goddi\Desktop\朱锦涛资产\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhufeng\Desktop\股票分析\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2D698F0-34D7-4B7E-93F9-1FC87DC9009F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="股票池" sheetId="1" r:id="rId1"/>
     <sheet name="投资组合" sheetId="2" r:id="rId2"/>
+    <sheet name="个股研究" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="71">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -200,13 +200,123 @@
   </si>
   <si>
     <t>绝味食品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国电信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国移动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贵州茅台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>营收利润增速趋势</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025H1营收</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024营收</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5236亿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2694亿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.041万亿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5438亿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024净利润</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025H1净利润</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>329.8亿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1385亿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>230.2亿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>842.7亿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总市值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6598亿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.326万亿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电信营业收入有移动的一半，虽然净利润只有大约四分之一，但是如果电信降低成本，完全可以达到移动
+净利润的一半。所以电信潜在的市值可以是1.2万亿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>营收利润
+市值分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>930亿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.87万亿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美的集团</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格力电器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双汇发展</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -306,7 +416,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -344,32 +454,48 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -656,10 +782,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
@@ -867,7 +993,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -878,74 +1004,74 @@
   <cols>
     <col min="1" max="1" width="18.77734375" style="12"/>
     <col min="2" max="2" width="18.77734375" style="6"/>
-    <col min="3" max="3" width="18.77734375" style="15"/>
+    <col min="3" max="3" width="18.77734375" style="14"/>
     <col min="4" max="16384" width="18.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="20" customFormat="1" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19"/>
-      <c r="B1" s="17" t="s">
+    <row r="1" spans="1:3" s="19" customFormat="1" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="18"/>
+      <c r="B1" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="17" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C2" s="15">
         <v>0.33</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13"/>
+      <c r="A3" s="21"/>
       <c r="B3" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="13">
         <v>0.33</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
+      <c r="A4" s="21"/>
       <c r="B4" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="13">
         <v>0.33</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="21" t="s">
         <v>39</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="13">
         <v>0.33</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
+      <c r="A8" s="21"/>
       <c r="B8" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="13">
         <v>0.33</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
+      <c r="A9" s="21"/>
       <c r="B9" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="13">
         <v>0.33</v>
       </c>
     </row>
@@ -957,4 +1083,150 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.77734375" style="23" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" customWidth="1"/>
+    <col min="3" max="3" width="16.88671875" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" customWidth="1"/>
+    <col min="6" max="6" width="13.44140625" customWidth="1"/>
+    <col min="7" max="7" width="28.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="24"/>
+      <c r="B2" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="24"/>
+      <c r="B7" s="22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="23" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="23" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="23" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:G1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>